--- a/codechef_START202D_contest_data.xlsx
+++ b/codechef_START202D_contest_data.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3072</t>
+          <t>3071</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -573,7 +573,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4072</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4931</t>
+          <t>4930</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5865</t>
+          <t>5864</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7256</t>
+          <t>7255</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8024</t>
+          <t>8023</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>8225</t>
+          <t>8224</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8759</t>
+          <t>8758</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>8934</t>
+          <t>8933</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9559</t>
+          <t>9558</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1158,7 +1158,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>10280</t>
+          <t>10279</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10417</t>
+          <t>10416</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>10646</t>
+          <t>10645</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10652</t>
+          <t>10651</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10925</t>
+          <t>10924</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1483,7 +1483,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>11089</t>
+          <t>11088</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11867</t>
+          <t>11866</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>13872</t>
+          <t>13871</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16021</t>
+          <t>16020</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>17151</t>
+          <t>17150</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>17617</t>
+          <t>17616</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>19115</t>
+          <t>19114</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>21142</t>
+          <t>21141</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>23191</t>
+          <t>23190</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>23495</t>
+          <t>23494</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>25554</t>
+          <t>25553</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>25685</t>
+          <t>25684</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>27283</t>
+          <t>27282</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
